--- a/fhir/ig/urgencia/StructureDefinition-antecedentes-alergia.xlsx
+++ b/fhir/ig/urgencia/StructureDefinition-antecedentes-alergia.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1895" uniqueCount="413">
   <si>
     <t>Property</t>
   </si>
@@ -45,73 +45,76 @@
     <t>Title</t>
   </si>
   <si>
+    <t>Alergias e Intolerancias</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>draft</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2024-08-29T09:57:29-04:00</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>ChileData</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>ChileData (http://chiledata.cl)</t>
+  </si>
+  <si>
+    <t>Roberto Araneda (roberto.araneda@chiledata.cl(work))</t>
+  </si>
+  <si>
+    <t>John Díaz (john.diaz@chiledata.cl(work))</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Registra los antecedentes de alergia o intolerancia del paciente</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>FHIR Version</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>AllergyIntolerance</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>draft</t>
-  </si>
-  <si>
-    <t>Experimental</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>2024-08-27T17:49:18-04:00</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>ChileData</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>ChileData (http://chiledata.cl)</t>
-  </si>
-  <si>
-    <t>Roberto Araneda (roberto.araneda@chiledata.cl(work))</t>
-  </si>
-  <si>
-    <t>John Díaz (john.diaz@chiledata.cl(work))</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Recurso para registrar los antecedentes de alergia del paciente</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>FHIR Version</t>
-  </si>
-  <si>
-    <t>4.0.1</t>
-  </si>
-  <si>
-    <t>Kind</t>
-  </si>
-  <si>
-    <t>resource</t>
-  </si>
-  <si>
-    <t>Type</t>
   </si>
   <si>
     <t>Base Definition</t>
@@ -659,6 +662,12 @@
 When a substance or product code is specified for the 'code' element, the "default" semantic context is that this is a positive statement of an allergy or intolerance (depending on the value of the 'type' element, if present) condition to the specified substance/product.  In the corresponding SNOMED CT allergy model, the specified substance/product is the target (destination) of the "Causative agent" relationship.  The 'substanceExposureRisk' extension is available as a structured and more flexible alternative to the 'code' element for making positive or negative allergy or intolerance statements.  This extension provides the capability to make "no known allergy" (or "no risk of adverse reaction") statements regarding any coded substance/product (including cases when a pre-coordinated "no allergy to x" concept for that substance/product does not exist).  If the 'substanceExposureRisk' extension is present, the AllergyIntolerance.code element SHALL be omitted.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Type of the substance/product, allergy or intolerance condition, or negation/exclusion codes for reporting no known allergies.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/allergyintolerance-code</t>
@@ -758,7 +767,7 @@
     <t>AllergyIntolerance.code.coding.system</t>
   </si>
   <si>
-    <t>Identity of the terminology system</t>
+    <t>Sistema de codificación de la alergia o intolerancia si es que se emplea un sistema de codificación</t>
   </si>
   <si>
     <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
@@ -803,7 +812,7 @@
     <t>AllergyIntolerance.code.coding.code</t>
   </si>
   <si>
-    <t>Symbol in syntax defined by the system</t>
+    <t>Código de la alergia o intolerancia si es que se emplea un sistema de codificación</t>
   </si>
   <si>
     <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
@@ -1192,9 +1201,6 @@
   </si>
   <si>
     <t>Coding of the specific substance (or pharmaceutical product) with a terminology capable of triggering decision support should be used wherever possible.  The 'code' element allows for the use of a specific substance or pharmaceutical product, or a group or class of substances. In the case of an allergy or intolerance to a class of substances, (for example, "penicillins"), the 'reaction.substance' element could be used to code the specific substance that was identified as having caused the reaction (for example, "amoxycillin"). Duplication of the value in the 'code' and 'reaction.substance' elements is acceptable when a specific substance has been recorded in 'code'.</t>
-  </si>
-  <si>
-    <t>example</t>
   </si>
   <si>
     <t>Codes defining the type of the substance (including pharmaceutical products).</t>
@@ -1612,31 +1618,31 @@
         <v>31</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1697,140 +1703,140 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>22</v>
@@ -1842,16 +1848,16 @@
         <v>22</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1901,22 +1907,22 @@
         <v>22</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>22</v>
@@ -1927,10 +1933,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1938,10 +1944,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>22</v>
@@ -1950,19 +1956,19 @@
         <v>22</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2012,13 +2018,13 @@
         <v>22</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>22</v>
@@ -2038,10 +2044,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2049,10 +2055,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>22</v>
@@ -2061,16 +2067,16 @@
         <v>22</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2121,19 +2127,19 @@
         <v>22</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>22</v>
@@ -2147,10 +2153,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2158,31 +2164,31 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>22</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2232,19 +2238,19 @@
         <v>22</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>22</v>
@@ -2258,10 +2264,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2269,10 +2275,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>22</v>
@@ -2284,16 +2290,16 @@
         <v>22</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2319,13 +2325,13 @@
         <v>22</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>22</v>
@@ -2343,19 +2349,19 @@
         <v>22</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>22</v>
@@ -2369,21 +2375,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>22</v>
@@ -2395,16 +2401,16 @@
         <v>22</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2454,22 +2460,22 @@
         <v>22</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>22</v>
@@ -2480,21 +2486,21 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>22</v>
@@ -2506,16 +2512,16 @@
         <v>22</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2565,13 +2571,13 @@
         <v>22</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>22</v>
@@ -2580,7 +2586,7 @@
         <v>22</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>22</v>
@@ -2591,21 +2597,21 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>22</v>
@@ -2617,16 +2623,16 @@
         <v>22</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2676,22 +2682,22 @@
         <v>22</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>22</v>
@@ -2702,45 +2708,45 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>22</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>22</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>22</v>
@@ -2789,22 +2795,22 @@
         <v>22</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>22</v>
@@ -2815,10 +2821,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2826,10 +2832,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>22</v>
@@ -2838,22 +2844,22 @@
         <v>22</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>22</v>
@@ -2902,36 +2908,36 @@
         <v>22</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2939,31 +2945,31 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2989,13 +2995,13 @@
         <v>22</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>22</v>
@@ -3013,25 +3019,25 @@
         <v>22</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>22</v>
@@ -3039,10 +3045,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3050,31 +3056,31 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3100,13 +3106,13 @@
         <v>22</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>22</v>
@@ -3124,25 +3130,25 @@
         <v>22</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>22</v>
@@ -3150,21 +3156,21 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>22</v>
@@ -3173,19 +3179,19 @@
         <v>22</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3211,13 +3217,13 @@
         <v>22</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>22</v>
@@ -3235,47 +3241,47 @@
         <v>22</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>22</v>
@@ -3284,19 +3290,19 @@
         <v>22</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3322,13 +3328,13 @@
         <v>22</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>22</v>
@@ -3346,47 +3352,47 @@
         <v>22</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>22</v>
@@ -3395,19 +3401,19 @@
         <v>22</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3433,13 +3439,13 @@
         <v>22</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>22</v>
@@ -3457,68 +3463,68 @@
         <v>22</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>22</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3544,11 +3550,13 @@
         <v>22</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="Y17" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="Z17" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>22</v>
@@ -3566,36 +3574,36 @@
         <v>22</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3603,10 +3611,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>22</v>
@@ -3618,13 +3626,13 @@
         <v>22</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3675,13 +3683,13 @@
         <v>22</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>22</v>
@@ -3690,7 +3698,7 @@
         <v>22</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>22</v>
@@ -3701,21 +3709,21 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>22</v>
@@ -3727,16 +3735,16 @@
         <v>22</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3774,34 +3782,34 @@
         <v>22</v>
       </c>
       <c r="AB19" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>22</v>
@@ -3812,10 +3820,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3823,34 +3831,34 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>22</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>22</v>
@@ -3899,36 +3907,36 @@
         <v>22</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3936,10 +3944,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>22</v>
@@ -3951,13 +3959,13 @@
         <v>22</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4008,13 +4016,13 @@
         <v>22</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>22</v>
@@ -4023,7 +4031,7 @@
         <v>22</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>22</v>
@@ -4034,21 +4042,21 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>22</v>
@@ -4060,16 +4068,16 @@
         <v>22</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4107,34 +4115,34 @@
         <v>22</v>
       </c>
       <c r="AB22" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>22</v>
@@ -4145,10 +4153,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4156,34 +4164,34 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>22</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>22</v>
@@ -4232,36 +4240,36 @@
         <v>22</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4269,10 +4277,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>22</v>
@@ -4281,19 +4289,19 @@
         <v>22</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4343,36 +4351,36 @@
         <v>22</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4380,32 +4388,32 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>22</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>22</v>
@@ -4454,36 +4462,36 @@
         <v>22</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4491,32 +4499,32 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>22</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>22</v>
@@ -4565,36 +4573,36 @@
         <v>22</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4602,10 +4610,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>22</v>
@@ -4614,22 +4622,22 @@
         <v>22</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>22</v>
@@ -4678,36 +4686,36 @@
         <v>22</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4715,34 +4723,34 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>22</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>22</v>
@@ -4791,65 +4799,65 @@
         <v>22</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>22</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4900,36 +4908,36 @@
         <v>22</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4937,10 +4945,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>22</v>
@@ -4952,13 +4960,13 @@
         <v>22</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5009,13 +5017,13 @@
         <v>22</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>22</v>
@@ -5024,7 +5032,7 @@
         <v>22</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>22</v>
@@ -5035,21 +5043,21 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>22</v>
@@ -5061,16 +5069,16 @@
         <v>22</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5108,34 +5116,34 @@
         <v>22</v>
       </c>
       <c r="AB31" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>22</v>
@@ -5146,10 +5154,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5157,31 +5165,31 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>22</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5231,22 +5239,22 @@
         <v>22</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>22</v>
@@ -5257,10 +5265,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5268,10 +5276,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>22</v>
@@ -5280,19 +5288,19 @@
         <v>22</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5318,13 +5326,13 @@
         <v>22</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>22</v>
@@ -5342,22 +5350,22 @@
         <v>22</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>22</v>
@@ -5368,10 +5376,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5379,10 +5387,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>22</v>
@@ -5391,19 +5399,19 @@
         <v>22</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5453,22 +5461,22 @@
         <v>22</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>22</v>
@@ -5479,10 +5487,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5490,31 +5498,31 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>22</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5564,22 +5572,22 @@
         <v>22</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>22</v>
@@ -5590,10 +5598,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5601,13 +5609,13 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>22</v>
@@ -5616,13 +5624,13 @@
         <v>22</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5673,25 +5681,25 @@
         <v>22</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>22</v>
@@ -5699,10 +5707,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5710,10 +5718,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>22</v>
@@ -5725,13 +5733,13 @@
         <v>22</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5782,25 +5790,25 @@
         <v>22</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>22</v>
@@ -5808,10 +5816,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5819,10 +5827,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>22</v>
@@ -5834,13 +5842,13 @@
         <v>22</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5891,47 +5899,47 @@
         <v>22</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>22</v>
@@ -5943,13 +5951,13 @@
         <v>22</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6000,25 +6008,25 @@
         <v>22</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>22</v>
@@ -6026,21 +6034,21 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>22</v>
@@ -6049,19 +6057,19 @@
         <v>22</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6111,36 +6119,36 @@
         <v>22</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6148,10 +6156,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>22</v>
@@ -6163,16 +6171,16 @@
         <v>22</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6222,22 +6230,22 @@
         <v>22</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>22</v>
@@ -6248,10 +6256,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6259,10 +6267,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>22</v>
@@ -6274,16 +6282,16 @@
         <v>22</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6333,22 +6341,22 @@
         <v>22</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>22</v>
@@ -6359,10 +6367,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6370,10 +6378,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>22</v>
@@ -6385,13 +6393,13 @@
         <v>22</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6442,22 +6450,22 @@
         <v>22</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>22</v>
@@ -6468,10 +6476,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6479,10 +6487,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>22</v>
@@ -6494,13 +6502,13 @@
         <v>22</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6551,13 +6559,13 @@
         <v>22</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>22</v>
@@ -6566,7 +6574,7 @@
         <v>22</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>22</v>
@@ -6577,21 +6585,21 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>22</v>
@@ -6603,16 +6611,16 @@
         <v>22</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6662,22 +6670,22 @@
         <v>22</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>22</v>
@@ -6688,45 +6696,45 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>22</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>22</v>
@@ -6775,22 +6783,22 @@
         <v>22</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>22</v>
@@ -6801,10 +6809,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6812,10 +6820,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>22</v>
@@ -6827,16 +6835,16 @@
         <v>22</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6862,13 +6870,13 @@
         <v>22</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>372</v>
+        <v>206</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>22</v>
@@ -6886,22 +6894,22 @@
         <v>22</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>22</v>
@@ -6912,21 +6920,21 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>22</v>
@@ -6938,16 +6946,16 @@
         <v>22</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6973,13 +6981,13 @@
         <v>22</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>372</v>
+        <v>206</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>22</v>
@@ -6997,47 +7005,47 @@
         <v>22</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>22</v>
@@ -7049,16 +7057,16 @@
         <v>22</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7108,22 +7116,22 @@
         <v>22</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>22</v>
@@ -7134,10 +7142,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7145,10 +7153,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>22</v>
@@ -7160,13 +7168,13 @@
         <v>22</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7217,36 +7225,36 @@
         <v>22</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7254,10 +7262,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>22</v>
@@ -7269,16 +7277,16 @@
         <v>22</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7304,13 +7312,13 @@
         <v>22</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>22</v>
@@ -7328,22 +7336,22 @@
         <v>22</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>22</v>
@@ -7354,10 +7362,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7365,10 +7373,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>22</v>
@@ -7380,16 +7388,16 @@
         <v>22</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7415,13 +7423,13 @@
         <v>22</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>372</v>
+        <v>206</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>22</v>
@@ -7439,22 +7447,22 @@
         <v>22</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>22</v>
@@ -7465,10 +7473,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7476,10 +7484,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>22</v>
@@ -7491,16 +7499,16 @@
         <v>22</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7550,22 +7558,22 @@
         <v>22</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>22</v>
